--- a/Documentos.xlsx
+++ b/Documentos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="16">
   <si>
     <t>Documento1</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Tue Apr 10 12:32:22 CEST 2018</t>
+  </si>
+  <si>
+    <t>Tue Apr 10 13:04:17 CEST 2018</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -165,6 +168,16 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -294,19 +307,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" s="77" t="n">
         <v>1.0</v>
       </c>
-      <c r="B1" s="67" t="n">
+      <c r="B1" t="n">
         <v>5.0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="67" t="s">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -338,19 +351,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" s="79" t="n">
         <v>1.0</v>
       </c>
-      <c r="B1" s="69" t="n">
+      <c r="B1" t="n">
         <v>4.0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="69" t="s">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -383,19 +396,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" s="82" t="n">
         <v>1.0</v>
       </c>
-      <c r="B1" s="72" t="n">
+      <c r="B1" t="n">
         <v>5.0</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
